--- a/testks-test/テスト資料群/【Dixie】オフショア推進資料_元ネタ.xlsx
+++ b/testks-test/テスト資料群/【Dixie】オフショア推進資料_元ネタ.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="282">
   <si>
     <t>チーム２</t>
   </si>
@@ -2811,6 +2811,10 @@
     <rPh sb="13" eb="15">
       <t>コウホ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2818,7 +2822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3494,6 +3498,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3515,22 +3522,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7047,20 +7051,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>195</v>
       </c>
@@ -7068,7 +7072,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>197</v>
       </c>
@@ -7076,7 +7080,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>197</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>197</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>201</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>197</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>197</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>195</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>197</v>
       </c>
@@ -7132,7 +7136,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>197</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>197</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>197</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
         <v>201</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>195</v>
       </c>
@@ -7172,12 +7176,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>197</v>
       </c>
       <c r="D21" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7194,17 +7203,17 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>170</v>
       </c>
@@ -7212,7 +7221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -7220,7 +7229,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -7231,7 +7240,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -7242,7 +7251,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -7253,7 +7262,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -7264,7 +7273,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -7275,7 +7284,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -7286,7 +7295,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -7297,7 +7306,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -7308,7 +7317,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -7319,7 +7328,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -7344,53 +7353,53 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -7411,7 +7420,7 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
@@ -7419,22 +7428,22 @@
     <col min="9" max="9" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickBot="1">
+    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>61</v>
       </c>
@@ -7466,11 +7475,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="36">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -7484,11 +7493,11 @@
       <c r="I4" s="40"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
@@ -7502,11 +7511,11 @@
       <c r="I5" s="40"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="36">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
@@ -7522,11 +7531,11 @@
       </c>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="36">
         <v>4</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
@@ -7540,15 +7549,15 @@
       </c>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="36">
         <v>5</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="25"/>
@@ -7560,15 +7569,15 @@
       </c>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="36">
         <v>6</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="25"/>
       <c r="F9" s="32"/>
       <c r="G9" s="31"/>
@@ -7576,15 +7585,15 @@
       <c r="I9" s="40"/>
       <c r="J9" s="47"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="36">
         <v>7</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="25"/>
       <c r="F10" s="32"/>
       <c r="G10" s="31"/>
@@ -7592,15 +7601,15 @@
       <c r="I10" s="40"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="36">
         <v>8</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="25"/>
       <c r="F11" s="32"/>
       <c r="G11" s="31"/>
@@ -7608,11 +7617,11 @@
       <c r="I11" s="40"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="36">
         <v>9</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" t="s">
         <v>49</v>
       </c>
@@ -7631,7 +7640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="36">
         <v>10</v>
       </c>
@@ -7651,7 +7660,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="36">
         <v>11</v>
       </c>
@@ -7669,7 +7678,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="36">
         <v>12</v>
       </c>
@@ -7685,7 +7694,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="36">
         <v>13</v>
       </c>
@@ -7703,7 +7712,7 @@
       </c>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="36">
         <v>14</v>
       </c>
@@ -7723,7 +7732,7 @@
       </c>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="36">
         <v>15</v>
       </c>
@@ -7739,7 +7748,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="36">
         <v>16</v>
       </c>
@@ -7755,7 +7764,7 @@
       <c r="I19" s="40"/>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="36">
         <v>17</v>
       </c>
@@ -7778,7 +7787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="36">
         <v>18</v>
       </c>
@@ -7796,7 +7805,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="36">
         <v>19</v>
       </c>
@@ -7812,7 +7821,7 @@
       <c r="I22" s="40"/>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="36">
         <v>20</v>
       </c>
@@ -7833,7 +7842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="36">
         <v>21</v>
       </c>
@@ -7851,7 +7860,7 @@
       </c>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="36">
         <v>22</v>
       </c>
@@ -7869,7 +7878,7 @@
       </c>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="36">
         <v>23</v>
       </c>
@@ -7885,7 +7894,7 @@
       <c r="I26" s="40"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:11" ht="27">
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="36">
         <v>24</v>
       </c>
@@ -7901,7 +7910,7 @@
       <c r="I27" s="40"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="36">
         <v>25</v>
       </c>
@@ -7919,7 +7928,7 @@
       </c>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="36">
         <v>26</v>
       </c>
@@ -7937,7 +7946,7 @@
       </c>
       <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="36">
         <v>27</v>
       </c>
@@ -7955,7 +7964,7 @@
       </c>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="36">
         <v>28</v>
       </c>
@@ -7973,7 +7982,7 @@
       </c>
       <c r="J31" s="34"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="36">
         <v>29</v>
       </c>
@@ -7986,7 +7995,7 @@
       <c r="I32" s="40"/>
       <c r="J32" s="34"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="36">
         <v>30</v>
       </c>
@@ -7999,7 +8008,7 @@
       <c r="I33" s="40"/>
       <c r="J33" s="34"/>
     </row>
-    <row r="34" spans="1:10" ht="14.25" thickBot="1">
+    <row r="34" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37">
         <v>31</v>
       </c>
@@ -8012,7 +8021,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -8021,32 +8030,32 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>82</v>
       </c>
@@ -8071,7 +8080,7 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="13" max="13" width="3.375" customWidth="1"/>
@@ -8081,17 +8090,17 @@
     <col min="18" max="18" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" thickBot="1">
+    <row r="6" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M7" s="48" t="s">
         <v>213</v>
       </c>
@@ -8099,7 +8108,7 @@
       <c r="O7" s="17"/>
       <c r="P7" s="49"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M8" s="50" t="s">
         <v>149</v>
       </c>
@@ -8109,7 +8118,7 @@
       </c>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M9" s="50"/>
       <c r="N9" s="7" t="s">
         <v>134</v>
@@ -8119,7 +8128,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M10" s="50"/>
       <c r="N10" s="7" t="s">
         <v>135</v>
@@ -8129,7 +8138,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M11" s="50"/>
       <c r="N11" s="7" t="s">
         <v>136</v>
@@ -8139,7 +8148,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M12" s="50"/>
       <c r="N12" s="7" t="s">
         <v>137</v>
@@ -8147,13 +8156,13 @@
       <c r="O12" s="7"/>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M13" s="50"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M14" s="50" t="s">
         <v>151</v>
       </c>
@@ -8163,7 +8172,7 @@
       </c>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M15" s="50"/>
       <c r="N15" s="7" t="s">
         <v>215</v>
@@ -8173,13 +8182,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M16" s="50"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="13:16">
+    <row r="17" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M17" s="50" t="s">
         <v>153</v>
       </c>
@@ -8189,7 +8198,7 @@
       </c>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="13:16">
+    <row r="18" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M18" s="50"/>
       <c r="N18" s="7" t="s">
         <v>140</v>
@@ -8199,7 +8208,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="13:16">
+    <row r="19" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M19" s="50"/>
       <c r="N19" s="7" t="s">
         <v>141</v>
@@ -8209,7 +8218,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="13:16">
+    <row r="20" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M20" s="50"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -8217,13 +8226,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="13:16">
+    <row r="21" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M21" s="50"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="13:16">
+    <row r="22" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M22" s="50" t="s">
         <v>155</v>
       </c>
@@ -8233,7 +8242,7 @@
       </c>
       <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="13:16">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M23" s="50"/>
       <c r="N23" s="7" t="s">
         <v>147</v>
@@ -8243,7 +8252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="13:16">
+    <row r="24" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M24" s="50"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -8251,7 +8260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="13:16">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M25" s="50"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -8259,13 +8268,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="13:16">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M26" s="50"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" spans="13:16">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M27" s="50" t="s">
         <v>216</v>
       </c>
@@ -8273,7 +8282,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="13:16">
+    <row r="28" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M28" s="50" t="s">
         <v>157</v>
       </c>
@@ -8283,7 +8292,7 @@
       </c>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="13:16">
+    <row r="29" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M29" s="50"/>
       <c r="N29" s="7" t="s">
         <v>87</v>
@@ -8293,7 +8302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="13:16">
+    <row r="30" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M30" s="50"/>
       <c r="N30" s="7" t="s">
         <v>88</v>
@@ -8303,7 +8312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="13:16">
+    <row r="31" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M31" s="50"/>
       <c r="N31" s="7" t="s">
         <v>86</v>
@@ -8311,7 +8320,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="13:16">
+    <row r="32" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M32" s="50"/>
       <c r="N32" s="7" t="s">
         <v>89</v>
@@ -8319,7 +8328,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="13:16">
+    <row r="33" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M33" s="50"/>
       <c r="N33" s="7" t="s">
         <v>90</v>
@@ -8327,7 +8336,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="13:16">
+    <row r="34" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M34" s="50"/>
       <c r="N34" s="7" t="s">
         <v>97</v>
@@ -8335,7 +8344,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" spans="13:16">
+    <row r="35" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M35" s="50"/>
       <c r="N35" s="7" t="s">
         <v>130</v>
@@ -8343,7 +8352,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" spans="13:16">
+    <row r="36" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M36" s="50"/>
       <c r="N36" s="7" t="s">
         <v>98</v>
@@ -8351,7 +8360,7 @@
       <c r="O36" s="7"/>
       <c r="P36" s="18"/>
     </row>
-    <row r="37" spans="13:16">
+    <row r="37" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M37" s="50"/>
       <c r="N37" s="7" t="s">
         <v>133</v>
@@ -8359,13 +8368,13 @@
       <c r="O37" s="7"/>
       <c r="P37" s="18"/>
     </row>
-    <row r="38" spans="13:16">
+    <row r="38" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M38" s="50"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="18"/>
     </row>
-    <row r="39" spans="13:16">
+    <row r="39" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M39" s="50" t="s">
         <v>159</v>
       </c>
@@ -8375,7 +8384,7 @@
       </c>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" spans="13:16">
+    <row r="40" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M40" s="50"/>
       <c r="N40" s="7" t="s">
         <v>87</v>
@@ -8385,7 +8394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="13:16">
+    <row r="41" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M41" s="50"/>
       <c r="N41" s="7" t="s">
         <v>89</v>
@@ -8395,7 +8404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="13:16">
+    <row r="42" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M42" s="50"/>
       <c r="N42" s="7" t="s">
         <v>100</v>
@@ -8405,7 +8414,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="13:16">
+    <row r="43" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M43" s="50"/>
       <c r="N43" s="7" t="s">
         <v>91</v>
@@ -8415,7 +8424,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="13:16">
+    <row r="44" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M44" s="50"/>
       <c r="N44" s="7" t="s">
         <v>92</v>
@@ -8423,7 +8432,7 @@
       <c r="O44" s="7"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" spans="13:16">
+    <row r="45" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M45" s="50"/>
       <c r="N45" s="7" t="s">
         <v>133</v>
@@ -8431,19 +8440,19 @@
       <c r="O45" s="7"/>
       <c r="P45" s="18"/>
     </row>
-    <row r="46" spans="13:16">
+    <row r="46" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M46" s="50"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="18"/>
     </row>
-    <row r="47" spans="13:16">
+    <row r="47" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M47" s="50"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="18"/>
     </row>
-    <row r="48" spans="13:16">
+    <row r="48" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M48" s="50" t="s">
         <v>161</v>
       </c>
@@ -8453,7 +8462,7 @@
       </c>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" spans="13:16">
+    <row r="49" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M49" s="50"/>
       <c r="N49" s="7" t="s">
         <v>93</v>
@@ -8463,7 +8472,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="13:16">
+    <row r="50" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M50" s="50"/>
       <c r="N50" s="7" t="s">
         <v>95</v>
@@ -8473,7 +8482,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="13:16">
+    <row r="51" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M51" s="50"/>
       <c r="N51" s="7" t="s">
         <v>99</v>
@@ -8483,13 +8492,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="13:16">
+    <row r="52" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M52" s="50"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="18"/>
     </row>
-    <row r="53" spans="13:16">
+    <row r="53" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M53" s="50" t="s">
         <v>163</v>
       </c>
@@ -8499,7 +8508,7 @@
       </c>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" spans="13:16">
+    <row r="54" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M54" s="50"/>
       <c r="N54" s="7" t="s">
         <v>93</v>
@@ -8509,7 +8518,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="13:16">
+    <row r="55" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M55" s="50"/>
       <c r="N55" s="7" t="s">
         <v>94</v>
@@ -8519,7 +8528,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="13:16">
+    <row r="56" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M56" s="50"/>
       <c r="N56" s="7" t="s">
         <v>99</v>
@@ -8529,13 +8538,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="13:16">
+    <row r="57" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M57" s="50"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="18"/>
     </row>
-    <row r="58" spans="13:16">
+    <row r="58" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M58" s="50" t="s">
         <v>165</v>
       </c>
@@ -8545,7 +8554,7 @@
       </c>
       <c r="P58" s="18"/>
     </row>
-    <row r="59" spans="13:16">
+    <row r="59" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M59" s="50"/>
       <c r="N59" s="7" t="s">
         <v>89</v>
@@ -8555,7 +8564,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="13:16">
+    <row r="60" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M60" s="50"/>
       <c r="N60" s="7" t="s">
         <v>27</v>
@@ -8565,7 +8574,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="13:16">
+    <row r="61" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M61" s="50"/>
       <c r="N61" s="7" t="s">
         <v>93</v>
@@ -8573,7 +8582,7 @@
       <c r="O61" s="7"/>
       <c r="P61" s="18"/>
     </row>
-    <row r="62" spans="13:16">
+    <row r="62" spans="13:16" x14ac:dyDescent="0.15">
       <c r="M62" s="50"/>
       <c r="N62" s="7" t="s">
         <v>99</v>
@@ -8581,7 +8590,7 @@
       <c r="O62" s="7"/>
       <c r="P62" s="18"/>
     </row>
-    <row r="63" spans="13:16" ht="14.25" thickBot="1">
+    <row r="63" spans="13:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M63" s="51"/>
       <c r="N63" s="52"/>
       <c r="O63" s="52"/>
@@ -8604,27 +8613,27 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -8632,7 +8641,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -8652,7 +8661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>220</v>
       </c>
@@ -8672,7 +8681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8692,7 +8701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8712,7 +8721,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -8732,7 +8741,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -8752,7 +8761,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -8772,7 +8781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -8792,32 +8801,32 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40.5">
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="56" t="s">
         <v>226</v>
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="65"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="C16" s="66"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -8828,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>228</v>
       </c>
@@ -8839,7 +8848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -8850,7 +8859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -8861,7 +8870,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -8872,7 +8881,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -8883,7 +8892,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -8894,7 +8903,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -8905,7 +8914,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -8916,34 +8925,34 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="40.5">
+    <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="56" t="s">
         <v>226</v>
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="65"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -8963,7 +8972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>220</v>
       </c>
@@ -8983,7 +8992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -9003,7 +9012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -9023,7 +9032,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -9043,7 +9052,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -9063,7 +9072,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -9083,7 +9092,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -9103,15 +9112,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="40.5">
+    <row r="40" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="68" t="s">
+      <c r="C40" s="68"/>
+      <c r="D40" s="56" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9138,178 +9147,178 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="3" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>230</v>
       </c>
@@ -9329,29 +9338,29 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.875" customWidth="1"/>
     <col min="3" max="3" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>277</v>
       </c>
@@ -9359,17 +9368,17 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>264</v>
       </c>
@@ -9377,12 +9386,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>264</v>
       </c>
@@ -9390,12 +9399,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>264</v>
       </c>
@@ -9403,12 +9412,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>264</v>
       </c>
@@ -9416,17 +9425,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>262</v>
       </c>
@@ -9434,7 +9443,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>264</v>
       </c>
@@ -9442,7 +9451,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>262</v>
       </c>
@@ -9465,14 +9474,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -9483,12 +9492,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>106</v>
       </c>
@@ -9496,32 +9505,32 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>110</v>
       </c>
@@ -9529,17 +9538,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>106</v>
       </c>
@@ -9547,32 +9556,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>106</v>
       </c>
@@ -9580,17 +9589,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>106</v>
       </c>
@@ -9598,17 +9607,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>106</v>
       </c>
@@ -9616,12 +9625,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>110</v>
       </c>
@@ -9629,7 +9638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>125</v>
       </c>
@@ -9648,14 +9657,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -9675,7 +9684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -9692,7 +9701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>36</v>
       </c>
@@ -9709,7 +9718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>30</v>
       </c>
@@ -9728,7 +9737,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9754,7 +9763,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -9780,12 +9789,12 @@
         <v>32.666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -9796,7 +9805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>40</v>
       </c>
@@ -9807,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -9815,7 +9824,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>30</v>
       </c>
@@ -9827,7 +9836,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9841,7 +9850,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -9872,28 +9881,28 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>84</v>
       </c>
